--- a/inputs/ioc_source.xlsx
+++ b/inputs/ioc_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\Fiscal Futures IGPA\Fiscal-Future-Topics\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47451A-CBB2-487F-A3AD-741CFA8A86AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391AFE5-1A29-4B11-B899-87EE7AB6507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{95DD0F56-1BF5-4636-A2E6-971DE42DAC47}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{95DD0F56-1BF5-4636-A2E6-971DE42DAC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={84E3B51D-E96A-4E96-9F9C-CAE154859839}</author>
+    <author>tc={8159C014-8BC9-4CBA-9A15-F046DEAFA3DF}</author>
+    <author>tc={6A670286-9C2B-4F52-89EF-520DF2963FE6}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{84E3B51D-E96A-4E96-9F9C-CAE154859839}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add rev_type code used by fiscal futures group as a team each year for new sources.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{8159C014-8BC9-4CBA-9A15-F046DEAFA3DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Category used by Fiscal Futures for aggregating revenue types. Once new sources are identified each year, add rev_type_name and rev_type as a team every year.</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{6A670286-9C2B-4F52-89EF-520DF2963FE6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Category used by Comptroller. Frequently is the same as the rev_type_name, but not always.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12540" uniqueCount="4906">
   <si>
@@ -14763,7 +14799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -14788,6 +14824,12 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -14872,15 +14914,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -14945,6 +14979,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Wilbur-Mujtaba, Alea" id="{6F7096AE-3784-4677-9E74-6D1E2E0C0074}" userId="S::awilbu2@uic.edu::ea1af866-cae4-4ee5-b1e7-e10861320d75" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44777,12 +44817,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35C46ACB-F213-49A5-9C6B-6F57AA7FB6BB}" name="Table2" displayName="Table2" ref="A1:H2452" totalsRowShown="0">
   <autoFilter ref="A1:H2452" xr:uid="{35C46ACB-F213-49A5-9C6B-6F57AA7FB6BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2452">
-    <sortCondition sortBy="cellColor" ref="A1:A2452" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="A1:A2452" dxfId="4"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4923F8B2-5513-4088-8697-E11D313F0099}" name="source" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4923F8B2-5513-4088-8697-E11D313F0099}" name="source" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{F1A031E1-A0E0-41DD-BAB5-202BDB3BBDA1}" name="source_name_AWM"/>
-    <tableColumn id="5" xr3:uid="{23F656EB-D4CD-4A8B-85EC-E53CA05FF5CB}" name="rev_type" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{23F656EB-D4CD-4A8B-85EC-E53CA05FF5CB}" name="rev_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{639D8938-4EEE-4F2C-AE83-7EE4A921BD51}" name="rev_type_name"/>
     <tableColumn id="7" xr3:uid="{D293C813-E328-4A5B-81EC-31315793B878}" name="amnesty"/>
     <tableColumn id="8" xr3:uid="{6E1065C2-2E64-4938-B2C2-925B67DA7FB2}" name="local"/>
@@ -44800,8 +44840,8 @@
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B87541C-9AB7-41CD-B1E8-378D08F3EB71}" name="rev_type_name_COMPTROLLER" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AB21AE6E-C28D-429C-ACA0-5C3733B30DD7}" name="rev_type_name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8B87541C-9AB7-41CD-B1E8-378D08F3EB71}" name="rev_type_name_COMPTROLLER" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AB21AE6E-C28D-429C-ACA0-5C3733B30DD7}" name="rev_type_name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -45102,12 +45142,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2025-07-30T14:35:31.54" personId="{6F7096AE-3784-4677-9E74-6D1E2E0C0074}" id="{84E3B51D-E96A-4E96-9F9C-CAE154859839}">
+    <text>Add rev_type code used by fiscal futures group as a team each year for new sources.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2025-07-30T14:30:18.49" personId="{6F7096AE-3784-4677-9E74-6D1E2E0C0074}" id="{8159C014-8BC9-4CBA-9A15-F046DEAFA3DF}">
+    <text>Category used by Fiscal Futures for aggregating revenue types. Once new sources are identified each year, add rev_type_name and rev_type as a team every year.</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2025-07-30T14:29:21.85" personId="{6F7096AE-3784-4677-9E74-6D1E2E0C0074}" id="{6A670286-9C2B-4F52-89EF-520DF2963FE6}">
+    <text>Category used by Comptroller. Frequently is the same as the rev_type_name, but not always.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -88007,8 +88061,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
